--- a/medicine/Enfance/Les_Patrouilleurs_de_l'an_4003/Les_Patrouilleurs_de_l'an_4003.xlsx
+++ b/medicine/Enfance/Les_Patrouilleurs_de_l'an_4003/Les_Patrouilleurs_de_l'an_4003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Patrouilleurs_de_l%27an_4003</t>
+          <t>Les_Patrouilleurs_de_l'an_4003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Patrouilleurs de l'an 4003 est une série de cinq romans pour la jeunesse de science-fiction relevant du space opera, écrite par Philippe Ébly, parus en France de 1984 à 1986. D'abord publiée aux éditions Masque Jeunesse, elle a été rééditée chez Hachette dans la collection Bibliothèque verte. L'unique illustrateur de la série est Jean-Marie Vivès.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Patrouilleurs_de_l%27an_4003</t>
+          <t>Les_Patrouilleurs_de_l'an_4003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre adolescents de 15 à 17 ans, aspirants de la Police de l'Espace, en forment une des patrouilles. Il leur est confié diverses missions d'exploration ou de sauvetage, prétexte à découvrir une nouvelle planète lors de chaque aventure.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Patrouilleurs_de_l%27an_4003</t>
+          <t>Les_Patrouilleurs_de_l'an_4003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dogann : chef de la patrouille.
 Xoni : le plus jeune membre, mais aussi le plus actif.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Patrouilleurs_de_l%27an_4003</t>
+          <t>Les_Patrouilleurs_de_l'an_4003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Liste des titres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1984 : La Forêt des castors
 1984 : Au pouvoir des corsaires
